--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553F1668-2704-AF48-97BA-F2727DE08AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E56C04-11F1-EE47-B3F6-598A7CE73A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
   <sheets>
-    <sheet name="Information" sheetId="2" r:id="rId1"/>
-    <sheet name="Structure of OseMOSYS" sheetId="1" r:id="rId2"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,272 +34,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="443">
-  <si>
-    <t>GOCPI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="446">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>This sheet outlines the key input parameters for the GOCPI model when creating an optimisation model</t>
-  </si>
-  <si>
-    <t>Explains the sets, parameters, variables and equations for formulating an OseMOSYS model.</t>
-  </si>
-  <si>
-    <t>Sets</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>It represents the time frame of the model, it contains all the years to be considered in the study.</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>TECHNOLOGY</t>
-  </si>
-  <si>
     <t>It includes any element of the energy system that changes a commodity from one form to another, uses it or supplies it. All system components are set up as a ‘technology’ in OSeMOSYS. As the model is an abstraction, the modeller is free to interpret the role of a technology at will, where relevant. It may for example represent a single real technology (such as a power plant) or can represent a heavily aggregated collection of technologies (such as the stock of several million light bulbs), or may even simply be a ‘dummy technology’, perhaps used for accounting purposes.</t>
   </si>
   <si>
     <t>t</t>
   </si>
   <si>
-    <t>TIMESLICE</t>
-  </si>
-  <si>
     <t>It represents the time split of each modelled year, therefore the time resolution of the model. Common to several energy systems modelling tools (incl. MESSAGE / MARKAL / TIMES), the annual demand is ‘sliced’ into representative fractions of the year. It is necessary to assess times of the year when demand is high separately from times when demand is low, for fuels that are expensive to store. In order to reduce the computation time, these ‘slices’ are often grouped. Thus, the annual demand may be split into aggregate seasons where demand levels are similar (such as ‘summer, winter and intermediate’). Those seasons may be subdivided into aggregate ‘day types’ (such as workdays and weekends), and the day further sub divided (such as into day and night) depending on the level of demand.</t>
   </si>
   <si>
     <t>l</t>
   </si>
   <si>
-    <t>FUEL</t>
-  </si>
-  <si>
     <t>It includes any energy vector, energy service or proxies entering or exiting technologies. These can be aggregate groups, individual flows or artificially separated, depending on the requirements of the analysis.</t>
   </si>
   <si>
     <t>f</t>
   </si>
   <si>
-    <t>EMISSION</t>
-  </si>
-  <si>
     <t>It includes any kind of emission potentially deriving from the operation of the defined technologies. Typical examples would include atmospheric emissions of greenhouse gasses, such as CO2.</t>
   </si>
   <si>
     <t>e</t>
   </si>
   <si>
-    <t>MODE_OF_OPERATION</t>
-  </si>
-  <si>
     <t>It defines the number of modes of operation that the technologies can have. If a technology can have various input or output fuels and it can choose the mix (i.e. any linear combination) of these input or output fuels, each mix can be accounted as a separate mode of operation. For example, a CHP plant may produce heat in one mode of operation and electricity in another.</t>
   </si>
   <si>
     <t>m</t>
   </si>
   <si>
-    <t>REGION</t>
-  </si>
-  <si>
     <t>It sets the regions to be modelled, e.g. different countries. For each of them, the supply-demand balances for all the energy vectors are ensured, including trades with other regions. In some occasions it might be computationally more convenient to model different countries within the same region and differentiate them simply by creating ad hoc fuels and technologies for each of them.</t>
   </si>
   <si>
     <t>r</t>
   </si>
   <si>
-    <t>SEASON</t>
-  </si>
-  <si>
     <t>It gives indication (by successive numerical values) of how many seasons (e.g. winter, intermediate, summer) are accounted for and in which order. This set is needed if storage facilities are included in the model.</t>
   </si>
   <si>
     <t>ls</t>
   </si>
   <si>
-    <t>DAYTYPE</t>
-  </si>
-  <si>
     <t>It gives indication (by successive numerical values) of how many day types (e.g. workday, weekend) are accounted for and in which order. This set is needed if storage facilities are included in the model.</t>
   </si>
   <si>
     <t>ld</t>
   </si>
   <si>
-    <t>DAILYTIMEBRACKET</t>
-  </si>
-  <si>
     <t>It gives indication (by successive numerical values) of how many parts the day is split into (e.g. night, morning, afternoon, evening) and in which order these parts are sorted. This set is needed if storage facilities are included in the model.</t>
   </si>
   <si>
     <t>lh</t>
   </si>
   <si>
-    <t>STORAGE</t>
-  </si>
-  <si>
     <t>It includes storage facilities in the model.</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>https://osemosys.readthedocs.io/en/latest/manual/Structure%20of%20OSeMOSYS.html</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
-    <t>All Sets</t>
-  </si>
-  <si>
     <t>Global Parameters</t>
   </si>
   <si>
-    <t>YearSplit[l,y]</t>
-  </si>
-  <si>
     <t>Duration of a modelled time slice, expressed as a fraction of the year. The sum of each entry over one modelled year should equal 1.</t>
   </si>
   <si>
-    <t>DiscountRate[r]</t>
-  </si>
-  <si>
     <t>Region specific value for the discount rate, expressed in decimals (e.g. 0.05)</t>
   </si>
   <si>
-    <t>DaySplit[lh,y]</t>
-  </si>
-  <si>
     <t>Length of one DailyTimeBracket in one specific day as a fraction of the year (e.g., when distinguishing between days and night: 12h/(24h*365d)).</t>
   </si>
   <si>
-    <t>Conversionls[l,ls]</t>
-  </si>
-  <si>
     <t>Binary parameter linking one TimeSlice to a certain Season. It has value 0 if the TimeSlice does not pertain to the specific season, 1 if it does.</t>
   </si>
   <si>
-    <t>Conversionld[ld,l]</t>
-  </si>
-  <si>
     <t>Binary parameter linking one TimeSlice to a certain DayType. It has value 0 if the TimeSlice does not pertain to the specific DayType, 1 if it does.</t>
   </si>
   <si>
-    <t>Conversionlh[lh,l]</t>
-  </si>
-  <si>
     <t>Binary parameter linking one TimeSlice to a certain DaylyTimeBracket. It has value 0 if the TimeSlice does not pertain to the specific DaylyTimeBracket, 1 if it does.</t>
   </si>
   <si>
-    <t>DaysInDayType[ls,ld,y]</t>
-  </si>
-  <si>
     <t>Number of days for each day type, within one week (natural number, ranging from 1 to 7)</t>
   </si>
   <si>
-    <t>TradeRoute[r,rr,f,y]</t>
-  </si>
-  <si>
     <t>Binary parameter defining the links between region r and region rr, to enable or disable trading of a specific commodity. It has value 1 when two regions are linked, 0 otherwise</t>
   </si>
   <si>
-    <t>DepreciationMethod[r]</t>
-  </si>
-  <si>
     <t>Binary parameter defining the type of depreciation to be applied. It has value 1 for sinking fund depreciation, value 2 for straight-line depreciation.</t>
   </si>
   <si>
     <t>Demands</t>
   </si>
   <si>
-    <t>SpecifiedAnnualDemand[r,f,y]</t>
-  </si>
-  <si>
     <t>Total specified demand for the year, linked to a specific ‘time of use’ during the year.</t>
   </si>
   <si>
-    <t>SpecifiedDemandProfile[r,f,l,y]</t>
-  </si>
-  <si>
     <t>Annual fraction of energy-service or commodity demand that is required in each time slice. For each year, all the defined SpecifiedDemandProfile input values should sum up to 1.</t>
   </si>
   <si>
-    <t>AccumulatedAnnualDemand[r,f,y]</t>
-  </si>
-  <si>
     <t>Accumulated Demand for a certain commodity in one specific year. It cannot be defined for a commodity if its SpecifiedAnnualDemand for the same year is already defined and vice versa.</t>
   </si>
   <si>
-    <t>CapacityToActivityUnit[r,t]</t>
-  </si>
-  <si>
     <t>Conversion factor relating the energy that would be produced when one unit of capacity is fully used in one year.</t>
   </si>
   <si>
-    <t>CapacityFactor[r,t,l,y]</t>
-  </si>
-  <si>
     <t>Capacity available per each TimeSlice expressed as a fraction of the total installed capacity, with values ranging from 0 to 1. It gives the possibility to account for forced outages.</t>
   </si>
   <si>
-    <t>AvailabilityFactor[r,t,y]</t>
-  </si>
-  <si>
     <t>Maximum time a technology can run in the whole year, as a fraction of the year ranging from 0 to 1. It gives the possibility to account for planned outages.</t>
   </si>
   <si>
-    <t>OperationalLife[r,t]</t>
-  </si>
-  <si>
     <t>Useful lifetime of a technology, expressed in years.</t>
   </si>
   <si>
-    <t>ResidualCapacity[r,t,y]</t>
-  </si>
-  <si>
     <t>Remained capacity available from before the modelling period.</t>
   </si>
   <si>
-    <t>InputActivityRatio[r,t,f,m,y]</t>
-  </si>
-  <si>
     <t>Rate of use of a commodity by a technology, as a ratio of the rate of activity.</t>
   </si>
   <si>
-    <t>OutputActivityRatio[r,t,f,m,y]</t>
-  </si>
-  <si>
     <t>Rate of commodity output from a technology, as a ratio of the rate of activity.</t>
   </si>
   <si>
-    <t>CapitalCost[r,t,y]</t>
-  </si>
-  <si>
     <t>Capital investment cost of a technology, per unit of capacity.</t>
   </si>
   <si>
-    <t>VariableCost[r,t,m,y]</t>
-  </si>
-  <si>
     <t>Cost of a technology for a given mode of operation (Variable O&amp;M cost), per unit of activity.</t>
   </si>
   <si>
-    <t>FixedCost[r,t,y]</t>
-  </si>
-  <si>
     <t>Fixed O&amp;M cost of a technology, per unit of capacity.</t>
   </si>
   <si>
@@ -309,117 +186,63 @@
     <t>Technology Costs</t>
   </si>
   <si>
-    <t>TechnologyToStorage[r,t,s,m]</t>
-  </si>
-  <si>
     <t>Binary parameter linking a technology to the storage facility it charges. It has value 1 if the technology and the storage facility are linked, 0 otherwise.</t>
   </si>
   <si>
-    <t>TechnologyFromStorage[r,t,s,m]</t>
-  </si>
-  <si>
     <t>Binary parameter linking a storage facility to the technology it feeds. It has value 1 if the technology and the storage facility are linked, 0 otherwise.</t>
   </si>
   <si>
-    <t>StorageLevelStart[r,s]</t>
-  </si>
-  <si>
     <t>Level of storage at the beginning of first modelled year, in units of activity.</t>
   </si>
   <si>
-    <t>StorageMaxChargeRate[r,s]</t>
-  </si>
-  <si>
     <t>Maximum charging rate for the storage, in units of activity per year.</t>
   </si>
   <si>
-    <t>StorageMaxDischargeRate[r,s]</t>
-  </si>
-  <si>
     <t>Maximum discharging rate for the storage, in units of activity per year.</t>
   </si>
   <si>
-    <t>MinStorageCharge[r,s,y]</t>
-  </si>
-  <si>
     <t>It sets a lower bound to the amount of energy stored, as a fraction of the maximum, with a number reanging between 0 and 1. The storage facility cannot be emptied below this level.</t>
   </si>
   <si>
-    <t>OperationalLifeStorage[r,s]</t>
-  </si>
-  <si>
     <t>Useful lifetime of the storage facility.</t>
   </si>
   <si>
-    <t>CapitalCostStorage[r,s,y]</t>
-  </si>
-  <si>
     <t>Binary parameter linking a technology to the storage facility it charges. It has value 0 if the technology and the storage facility are not linked, 1 if they are.</t>
   </si>
   <si>
-    <t>ResidualStorageCapacity[r,s,y]</t>
-  </si>
-  <si>
     <t>Binary parameter linking a storage facility to the technology it feeds. It has value 0 if the technology and the storage facility are not linked, 1 if they are.</t>
   </si>
   <si>
     <t>Capacity constraints</t>
   </si>
   <si>
-    <t>CapacityOfOneTechnologyUnit[r,t,y]</t>
-  </si>
-  <si>
     <t>Capacity of one new unit of a technology. In case the user sets this parameter, the related technology will be installed only in batches of the specified capacity and the problem will turn into a Mixed Integer Linear Problem.</t>
   </si>
   <si>
-    <t>TotalAnnualMaxCapacity[r,t,y]</t>
-  </si>
-  <si>
     <t>Total maximum existing (residual plus cumulatively installed) capacity allowed for a technology in a specified year.</t>
   </si>
   <si>
-    <t>TotalAnnualMinCapacity[r,t,y]</t>
-  </si>
-  <si>
     <t>Total minimum existing (residual plus cumulatively installed) capacity allowed for a technology in a specified year.</t>
   </si>
   <si>
-    <t>TotalAnnualMaxCapacityInvestment[r,t,y]</t>
-  </si>
-  <si>
     <t>Maximum capacity of a technology, expressed in power units.</t>
   </si>
   <si>
-    <t>TotalAnnualMinCapacityInvestment[r,t,y]</t>
-  </si>
-  <si>
     <t>Minimum capacity of a technology, expressed in power units.</t>
   </si>
   <si>
     <t>Activity constraints</t>
   </si>
   <si>
-    <t>TotalTechnologyAnnualActivityUpperLimit[r,t,y]</t>
-  </si>
-  <si>
     <t>Total maximum level of activity allowed for a technology in one year.</t>
   </si>
   <si>
-    <t>TotalTechnologyAnnualActivityLowerLimit[r,t,y]</t>
-  </si>
-  <si>
     <t>Total minimum level of activity allowed for a technology in one year.</t>
   </si>
   <si>
-    <t>TotalTechnologyModelPeriodActivityUpperLimit[r,t]</t>
-  </si>
-  <si>
     <t>Total maximum level of activity allowed for a technology in the entire modelled period.</t>
   </si>
   <si>
-    <t>TotalTechnologyModelPeriodActivityLowerLimit[r,t]</t>
-  </si>
-  <si>
     <t>Total minimum level of activity allowed for a technology in the entire modelled period.</t>
   </si>
   <si>
@@ -432,504 +255,270 @@
     <t>Reserve Margin</t>
   </si>
   <si>
-    <t>ReserveMarginTagTechnology[r,t,y]</t>
-  </si>
-  <si>
     <t>Binary parameter tagging the technologies that are allowed to contribute to the reserve margin. It has value 1 for the technologies allowed, 0 otherwise.</t>
   </si>
   <si>
-    <t>ReserveMarginTagFuel[r,f,y]</t>
-  </si>
-  <si>
     <t>Binary parameter tagging the fuels to which the reserve margin applies. It has value 1 if the reserve margin applies to the fuel, 0 otherwise.</t>
   </si>
   <si>
-    <t>ReserveMargin[r,y]</t>
-  </si>
-  <si>
     <t>Minimum level of the reserve margin required to be provided for all the tagged commodities, by the tagged technologies. If no reserve margin is required, the parameter will have value 1; if, for instance, 20% reserve margin is required, the parameter will have value 1.2.</t>
   </si>
   <si>
     <t>RE Generation target</t>
   </si>
   <si>
-    <t>RETagTechnology[r,t,y]</t>
-  </si>
-  <si>
     <t>Binary parameter tagging the renewable technologies that must contribute to reaching the indicated minimum renewable production target. It has value 1 for thetechnologies contributing, 0 otherwise.</t>
   </si>
   <si>
-    <t>RETagFuel[r,f,y]</t>
-  </si>
-  <si>
     <t>Binary parameter tagging the fuels to which the renewable target applies to. It has value 1 if the target applies, 0 otherwise.</t>
   </si>
   <si>
-    <t>REMinProductionTarget[r,y]</t>
-  </si>
-  <si>
     <t>Minimum ratio of all renewable commodities tagged in the RETagCommodity parameter, to be produced by the technologies tagged with the RETechnology parameter.</t>
   </si>
   <si>
     <t>Emissions</t>
   </si>
   <si>
-    <t>EmissionActivityRatio[r,t,e,m,y]</t>
-  </si>
-  <si>
     <t>Emission factor of a technology per unit of activity, per mode of operation.</t>
   </si>
   <si>
-    <t>EmissionsPenalty[r,e,y]</t>
-  </si>
-  <si>
     <t>Penalty per unit of emission.</t>
   </si>
   <si>
-    <t>AnnualExogenousEmission[r,e,y]</t>
-  </si>
-  <si>
     <t>It allows the user to account for additional annual emissions, on top of those computed endogenously by the model (e.g. emissions generated outside the region).</t>
   </si>
   <si>
-    <t>AnnualEmissionLimit[r,e,y]</t>
-  </si>
-  <si>
     <t>Annual upper limit for a specific emission generated in the whole modelled region.</t>
   </si>
   <si>
-    <t>ModelPeriodExogenousEmission[r,e]</t>
-  </si>
-  <si>
     <t>It allows the user to account for additional emissions over the entire modelled period, on top of those computed endogenously by the model (e.g. generated outside the region).</t>
   </si>
   <si>
-    <t>ModelPeriodEmissionLimit[r,e]</t>
-  </si>
-  <si>
     <t>Annual upper limit for a specific emission generated in the whole modelled region, over the entire modelled period.</t>
   </si>
   <si>
     <t>Variables</t>
   </si>
   <si>
-    <t>RateOfDemand[r,l,f,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Intermediate variable. It represents the energy that would be demanded in one time slice l if the latter lasted the whole year. It is a function of the parameters SpecifiedAnnualDemand and SpecifiedDemandProfile. | Energy (per year)</t>
   </si>
   <si>
-    <t>Demand[r,l,f,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Demand for one fuel in one time slice.</t>
   </si>
   <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>RateOfStorageCharge[r,s,ls,ld,lh,y]</t>
-  </si>
-  <si>
     <t>Intermediate variable. It represents the commodity that would be charged to the storage facility s in one time slice if the latter lasted the whole year. It is a function of the RateOfActivity and the parameter TechnologyToStorage. | Energy (per year)</t>
   </si>
   <si>
-    <t>RateOfStorageDischarge[r,s,ls,ld,lh,y]</t>
-  </si>
-  <si>
     <t>Intermediate variable. It represents the commodity that would be discharged from storage facility s in one time slice if the latter lasted the whole year. It is a function of the RateOfActivity and the parameter TechnologyFromStorage.</t>
   </si>
   <si>
     <t>Energy (per year)</t>
   </si>
   <si>
-    <t>NetChargeWithinYear[r,s,ls,ld,lh,y]</t>
-  </si>
-  <si>
     <t>Net quantity of commodity charged to storage facility s in year y. It is a function of the RateOfStorageCharge and the RateOfStorageDischarge and it can be negative.</t>
   </si>
   <si>
-    <t>NetChargeWithinDay[r,s,ls,ld,lh,y]</t>
-  </si>
-  <si>
     <t>Net quantity of commodity charged to storage facility s in daytype ld. It is a function of the RateOfStorageCharge and the RateOfStorageDischarge and can be negative.</t>
   </si>
   <si>
-    <t>StorageLevelYearStart[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Level of stored commodity in storage facility s in the first time step of year y.</t>
   </si>
   <si>
-    <t>StorageLevelYearFinish[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Level of stored commodity in storage facility s in the last time step of year y.</t>
   </si>
   <si>
-    <t>StorageLevelSeasonStart[r,s,ls,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Level of stored commodity in storage facility s in the first time step of season ls.</t>
   </si>
   <si>
-    <t>StorageLevelDayTypeStart[r,s,ls,ld,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Level of stored commodity in storage facility s in the first time step of daytype ld.</t>
   </si>
   <si>
-    <t>StorageLevelDayTypeFinish[r,s,ls,ld,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Level of stored commodity in storage facility s in the last time step of daytype ld.</t>
   </si>
   <si>
-    <t>StorageLowerLimit[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Minimum allowed level of stored commodity in storage facility s, as a function of the storage capacity and the user-defined MinStorageCharge ratio.</t>
   </si>
   <si>
-    <t>StorageUpperLimit[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Maximum allowed level of stored commodity in storage facility s. It corresponds to the total existing capacity of storage facility s (summing newly installed and pre-existing capacities).</t>
   </si>
   <si>
-    <t>AccumulatedNewStorageCapacity[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Cumulative capacity of newly installed storage from the beginning of the time domain to year y.</t>
   </si>
   <si>
-    <t>NewStorageCapacity[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Capacity of newly installed storage in year y.</t>
   </si>
   <si>
-    <t>CapitalInvestmentStorage[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Undiscounted investment in new capacity for storage facility s. Derived from the NewStorageCapacity and the parameter CapitalCostStorage.</t>
   </si>
   <si>
     <t>Monetary units</t>
   </si>
   <si>
-    <t>DiscountedCapitalInvestmentStorage[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Investment in new capacity for storage facility s, discounted through the parameter DiscountRate.</t>
   </si>
   <si>
-    <t>SalvageValueStorage[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Salvage value of storage facility s in year y, as a function of the parameters OperationalLifeStorage and DepreciationMethod.</t>
   </si>
   <si>
-    <t>DiscountedSalvageValueStorage[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Salvage value of storage facility s, discounted through the parameter DiscountRate.</t>
   </si>
   <si>
-    <t>TotalDiscountedStorageCost[r,s,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Difference between the discounted capital investment in new storage facilities and the salvage value in year y.</t>
   </si>
   <si>
     <t>Capacity variables</t>
   </si>
   <si>
-    <t>NumberOfNewTechnologyUnits[r,t,y]&gt;=0, integer</t>
-  </si>
-  <si>
     <t>Number of newly installed units of technology t in year y, as a function of the parameter CapacityOfOneTechnologyUnit. | No unit</t>
   </si>
   <si>
-    <t>NewCapacity[r,t,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Newly installed capacity of technology t in year y.</t>
   </si>
   <si>
     <t>Power</t>
   </si>
   <si>
-    <t>AccumulatedNewCapacity[r,t,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Cumulative newly installed capacity of technology t from the beginning of the time domain to year y.</t>
   </si>
   <si>
-    <t>TotalCapacityAnnual[r,t,y]&gt;=0</t>
-  </si>
-  <si>
     <t>Total existing capacity of technology t in year y (sum of cumulative newly installed and pre-existing capacity).</t>
   </si>
   <si>
     <t>Activity variables</t>
   </si>
   <si>
-    <t>RateOfActivity[r,l,t,m,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Intermediate variable. It represents the activity of technology t in one mode of operation and in time slice l, if the latter lasted the whole year. | Energy (per year)</t>
   </si>
   <si>
-    <t>RateOfTotalActivity[r,t,l,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Sum of the RateOfActivity of a technology over the modes of operation.</t>
   </si>
   <si>
-    <t>TotalTechnologyAnnualActivity[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Total annual activity of technology t.</t>
   </si>
   <si>
-    <t>TotalAnnualTechnologyActivityByMode[r,t,m,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Annual activity of technology t in mode of operation m.</t>
   </si>
   <si>
-    <t>TotalTechnologyModelPeriodActivity[r,t]</t>
-  </si>
-  <si>
     <t>Sum of the TotalTechnologyAnnualActivity over the years of the modelled period.</t>
   </si>
   <si>
-    <t>RateOfProductionByTechnologyByMode[r,l,t,m,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Intermediate variable. It represents the quantity of fuel f that technology t would produce in one mode of operation and in time slice l, if the latter lasted the whole year. It is a function of the variable RateOfActivity and the parameter OutputActivityRatio.</t>
   </si>
   <si>
-    <t>RateOfProductionByTechnology[r,l,t,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Sum of the RateOfProductionByTechnologyByMode over the modes of operation.</t>
   </si>
   <si>
-    <t>ProductionByTechnology[r,l,t,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Production of fuel f by technology t in time slice l.</t>
   </si>
   <si>
-    <t>ProductionByTechnologyAnnual[r,t,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Annual production of fuel f by technology t.</t>
   </si>
   <si>
-    <t>RateOfProduction[r,l,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Sum of the RateOfProductionByTechnology over all the technologies.</t>
   </si>
   <si>
-    <t>Production[r,l,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Total production of fuel f in time slice l. It is the sum of the ProductionByTechnology over all technologies.</t>
   </si>
   <si>
-    <t>RateOfUseByTechnologyByMode[r,l,t,m,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Intermediate variable. It represents the quantity of fuel f that technology t would use in one mode of operation and in time slice l, if the latter lasted the whole year. It is the function of the variable RateOfActivity and the parameter InputActivityRatio.</t>
   </si>
   <si>
-    <t>RateOfUseByTechnology[r,l,t,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Sum of the RateOfUseByTechnologyByMode over the modes of operation.</t>
   </si>
   <si>
-    <t>UseByTechnologyAnnual[r,t,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Annual use of fuel f by technology t.</t>
   </si>
   <si>
-    <t>UseByTechnology[r,l,t,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Use of fuel f by technology t in time slice l.</t>
   </si>
   <si>
-    <t>Use[r,l,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Total use of fuel f in time slice l. It is the sum of the UseByTechnology over all technologies.</t>
   </si>
   <si>
-    <t>Trade[r,rr,l,f,y]</t>
-  </si>
-  <si>
     <t>Quantity of fuel f traded between region r and rr in time slice l.</t>
   </si>
   <si>
-    <t>TradeAnnual[r,rr,f,y]</t>
-  </si>
-  <si>
     <t>Annual quantity of fuel f traded between region r and rr. It is the sum of the variable Trade over all the time slices.</t>
   </si>
   <si>
-    <t>ProductionAnnual[r,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Total annual production of fuel f. It is the sum of the variable Production over all technologies.</t>
   </si>
   <si>
-    <t>UseAnnual[r,f,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Total annual use of fuel f. It is the sum of the variable Use over all technologies.</t>
   </si>
   <si>
     <t>Costing variables</t>
   </si>
   <si>
-    <t>CapitalInvestment[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Undiscounted investment in new capacity of technology t. It is a function of the NewCapacity and the parameter CapitalCost. | Monetary units</t>
   </si>
   <si>
-    <t>DiscountedCapitalInvestment[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Investment in new capacity of technology t, discounted through the parameter DiscountRate.</t>
   </si>
   <si>
-    <t>SalvageValue[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Salvage value of technology t in year y, as a function of the parameters OperationalLife and DepreciationMethod.</t>
   </si>
   <si>
-    <t>DiscountedSalvageValue[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Salvage value of technology t, discounted through the parameter DiscountRate.</t>
   </si>
   <si>
-    <t>OperatingCost[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Undiscounted sum of the annual variable and fixed operating costs of technology t.</t>
   </si>
   <si>
-    <t>DiscountedOperatingCost[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Annual OperatingCost of technology t, discounted through the parameter DiscountRate.</t>
   </si>
   <si>
-    <t>AnnualVariableOperatingCost[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Annual variable operating cost of technology t. Derived from the TotalAnnualTechnologyActivityByMode and the parameter VariableCost.</t>
   </si>
   <si>
-    <t>AnnualFixedOperatingCost[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Annual fixed operating cost of technology t. Derived from the TotalCapacityAnnual and the parameter FixedCost.</t>
   </si>
   <si>
-    <t>TotalDiscountedCostByTechnology[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Difference between the sum of discounted operating cost / capital cost / emission penalties and the salvage value.</t>
   </si>
   <si>
-    <t>TotalDiscountedCost[r,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Sum of the TotalDiscountedCostByTechnology over all the technologies.</t>
   </si>
   <si>
-    <t>ModelPeriodCostByRegion[r] &gt;=0</t>
-  </si>
-  <si>
     <t>Sum of the TotalDiscountedCost over all modelled years.</t>
   </si>
   <si>
-    <t>TotalCapacityInReserveMargin[r,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Total available capacity of the technologies required to provide reserve margin. It is derived from the TotalCapacityAnnual and the parameter ReserveMarginTagTechnology. | Energy</t>
   </si>
   <si>
-    <t>DemandNeedingReserveMargin[r,l,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Quantity of fuel produced that is assigned to a target of reserve margin. Derived from the RateOfProduction and the parameter ReserveMarginTagFuel.</t>
   </si>
   <si>
-    <t>TotalREProductionAnnual[r,y]</t>
-  </si>
-  <si>
     <t>Annual production by all technologies tagged as renewable in the model. Derived from the ProductionByTechnologyAnnual and the parameter RETagTechnology.</t>
   </si>
   <si>
-    <t>RETotalProductionOfTargetFuelAnnual[r,y]</t>
-  </si>
-  <si>
     <t>Annual production of fuels tagged as renewable in the model. Derived from the RateOfProduction and the parameter RETagFuel.</t>
   </si>
   <si>
-    <t>AnnualTechnologyEmissionByMode[r,t,e,m,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Annual emission of agent e by technology t in mode of operation m. Derived from the RateOfActivity and the parameter EmissionActivityRatio.</t>
   </si>
   <si>
     <t>Quantity of emission</t>
   </si>
   <si>
-    <t>AnnualTechnologyEmission[r,t,e,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Sum of the AnnualTechnologyEmissionByMode over the modes of operation.</t>
   </si>
   <si>
-    <t>AnnualTechnologyEmissionPenaltyByEmission[r,t,e,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Undiscounted annual cost of emission e by technology t. It is a function of the AnnualTechnologyEmission and the parameter EmissionPenalty.</t>
   </si>
   <si>
-    <t>AnnualTechnologyEmissionsPenalty[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Total undiscounted annual cost of all emissions generated by technology t. Sum of the AnnualTechnologyEmissionPenaltyByEmission over all the emitted agents.</t>
   </si>
   <si>
-    <t>DiscountedTechnologyEmissionsPenalty[r,t,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Annual cost of emissions by technology t, discounted through the DiscountRate.</t>
   </si>
   <si>
-    <t>AnnualEmissions[r,e,y] &gt;=0</t>
-  </si>
-  <si>
     <t>Sum of the AnnualTechnologyEmission over all technologies.</t>
   </si>
   <si>
-    <t>ModelPeriodEmissions[r,e] &gt;=0</t>
-  </si>
-  <si>
     <t>Total system emissions of agent e in the model period, accounting for both the emissions by technologies and the user defined ModelPeriodExogenousEmission.</t>
   </si>
   <si>
@@ -25305,13 +24894,433 @@
   </si>
   <si>
     <t>Solver Line</t>
+  </si>
+  <si>
+    <t>param DepreciationMethod[r in REGION];</t>
+  </si>
+  <si>
+    <t>param TradeRoute[r in REGION,rr in REGION,f in FUEL,y in YEAR]</t>
+  </si>
+  <si>
+    <t>set YEAR;</t>
+  </si>
+  <si>
+    <t>set TECHNOLOGY;</t>
+  </si>
+  <si>
+    <t>set TIMESLICE;</t>
+  </si>
+  <si>
+    <t>set FUEL;</t>
+  </si>
+  <si>
+    <t>set EMISSION;</t>
+  </si>
+  <si>
+    <t>set MODE_OF_OPERATION;</t>
+  </si>
+  <si>
+    <t>set REGION;</t>
+  </si>
+  <si>
+    <t>set SEASON;</t>
+  </si>
+  <si>
+    <t>set DAYTYPE;</t>
+  </si>
+  <si>
+    <t>set DAILYTIMEBRACKET;</t>
+  </si>
+  <si>
+    <t>set STORAGE;</t>
+  </si>
+  <si>
+    <t>param Conversionld[ld in DAYTYPE,l in TIMESLICE];</t>
+  </si>
+  <si>
+    <t>param Conversionlh[lh in DAILYTIMEBRACKET,l in TIMESLICE]</t>
+  </si>
+  <si>
+    <t>param Conversionls[l in TIMESLICE,ls in SEASON];</t>
+  </si>
+  <si>
+    <t>param DaySplit[lh in DAILYTIMEBRACKET,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param DiscountRate[r in REGION];</t>
+  </si>
+  <si>
+    <t>param YearSplit[l in TIMESLICE,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param DaysInDayType[ls in SEASON ,ld in DAYTYPE,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param AccumulatedAnnualDemand[r in REGION,f in FUEL,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param CapacityToActivityUnit[r in REGION,t in TECHNOLOGY];</t>
+  </si>
+  <si>
+    <t>param CapacityFactor[r in REGION,t in TECHNOLOGY,l in TIMESLICE,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param AvailabilityFactor[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param OperationalLife[r in REGION,t in TECHNOLOGY];</t>
+  </si>
+  <si>
+    <t>param ResidualCapacity[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param InputActivityRatio[r in REGION,t in TECHNOLOGY,f in FUEL,m in MODE_OF_OPERATION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param OutputActivityRatio[r in REGION,t in TECNHOLOGY,f in FUEL,m in MODE_OF_OPERATION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param CapitalCost[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param VariableCost[r in REGION,t in TECHNOLOGY,m in MODE_OF_OPERATION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param FixedCost[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param TechnologyToStorage[r in REGION,t in TECHNOLOGY,s in STORAGE,m in MODE_OF_OPERATION];</t>
+  </si>
+  <si>
+    <t>param TechnologyFromStorage[r in REGION,t in TECHNOLOGY,s in STORAGE,m in MODE_OF_OPERATION];</t>
+  </si>
+  <si>
+    <t>param StorageLevelStart[r in REGION,s in STORAGE];</t>
+  </si>
+  <si>
+    <t>param StorageMaxChargeRate[r in REGION,s in STORAGE];</t>
+  </si>
+  <si>
+    <t>param StorageMaxDischargeRate[r in REGION,s in STORAGE];</t>
+  </si>
+  <si>
+    <t>param MinStorageCharge[r in REGION,s in STORAGE,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param OperationalLifeStorage[rin REGION, s in STORAGE];</t>
+  </si>
+  <si>
+    <t>param CapitalCostStorage[r in REGION,s in STORAGE,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param ResidualStorageCapacity[r in REGION,s in STORAGE,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param CapacityOfOneTechnologyUnit[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param TotalAnnualMaxCapacity[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param TotalAnnualMinCapacity[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param TotalAnnualMaxCapacityInvestment[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param TotalAnnualMinCapacityInvestment[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param TotalTechnologyAnnualActivityUpperLimit[r in REGION,t in TECHNOLOGY,y. in YEAR];</t>
+  </si>
+  <si>
+    <t>param TotalTechnologyAnnualActivityLowerLimit[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param TotalTechnologyModelPeriodActivityUpperLimit[r in REGION,t in TECHNOLOGY];</t>
+  </si>
+  <si>
+    <t>param TotalTechnologyModelPeriodActivityLowerLimit[r in REGION,t in TECHNOLOGY];</t>
+  </si>
+  <si>
+    <t>param ReserveMarginTagTechnology[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param ReserveMarginTagFuel[r in REGION,f in FUEL,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param ReserveMargin[r in REGION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param RETagTechnology[r in REGION,t in TECHNOLOGY,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param RETagFuel[r in REGION,f in FUEL,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param REMinProductionTarget[r in REGION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param EmissionActivityRatio[r in REGION,t in TECHNOLOGY,e in EMISSION,m in MODE_OF_OPERATION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param EmissionsPenalty[r in REGION,e in EMISSION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param AnnualExogenousEmission[r in REGION,e in EMISSION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param AnnualEmissionLimit[r in REGION,e in EMISSION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param ModelPeriodExogenousEmission[r in REGION,e in EMISSION];</t>
+  </si>
+  <si>
+    <t>param ModelPeriodEmissionLimit[r in REGION,e in EMISSION];</t>
+  </si>
+  <si>
+    <t>var RateOfDemand[r in REGION,l in TIMESLICE,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var Demand[r in REGION,l in TIMESLICE,f in FUEL,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var RateOfStorageCharge[r in REGION,s in STORAGE,ls in SEASON,ld in DAYTYPE,lh in DAILYTIMEBRACKET,y in YEAR];</t>
+  </si>
+  <si>
+    <t>var RateOfStorageDischarge[r in REGION,s in STORAGE,ls in SEASON,ld in DAYTYPE,lh in DAILYTIMEBRACKET,y in YEAR];</t>
+  </si>
+  <si>
+    <t>var NetChargeWithinYear[r in REGION,s in STORAGE,ls in SEASON,ld in DAYTYPE,lh in DAILYTIMEBRACKET,y in YEAR];</t>
+  </si>
+  <si>
+    <t>var NetChargeWithinDay[r in REGION,s in STORAGE,ls in SEASON,ld in DAYTYPE,lh in DAILYTIMEBRACKET,y in YEAR];</t>
+  </si>
+  <si>
+    <t>var StorageLevelYearStart[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var StorageLevelYearFinish[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var StorageLevelSeasonStart[r in REGION,s in STORAGE,ls in SEASON,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var StorageLevelDayTypeStart[r in REGION,s in STORAGE,ls in SEASON,ld in DAYTYPE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var StorageLevelDayTypeFinish[r in REGION,s in STORAGE,ls in SEASON,ld in DAYTYPE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var StorageLowerLimit[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var StorageUpperLimit[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var AccumulatedNewStorageCapacity[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var NewStorageCapacity[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var CapitalInvestmentStorage[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var DiscountedCapitalInvestmentStorage[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var SalvageValueStorage[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var DiscountedSalvageValueStorage[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var TotalDiscountedStorageCost[r in REGION,s in STORAGE,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var NumberOfNewTechnologyUnits[r in REGION,t in TECHNOLOGY,y in YEAR]&gt;=0, integer;</t>
+  </si>
+  <si>
+    <t>var NewCapacity[r in REGION,t in TECHNOLOGY,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var AccumulatedNewCapacity[r in REGION,t in TECHNOLOGY,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var TotalCapacityAnnual[r in REGION,t in TECHNOLOGY,y in YEAR]&gt;=0;</t>
+  </si>
+  <si>
+    <t>var RateOfTotalActivity[r in REGION,t in TECHNOLOGY,l in TIMESLICE,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var TotalTechnologyAnnualActivity[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var TotalAnnualTechnologyActivityByMode[r in REGION,t in TECHNOLOGY,m in MODE_OF_OPERATION,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var RateOfActivity[r in REGION,l in TIMESLICE,t in TECHNOLOGY,m in MODE_OF_OPERATION,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var TotalTechnologyModelPeriodActivity[r in REGION,t in TECHNOLOGY];</t>
+  </si>
+  <si>
+    <t>var RateOfProductionByTechnologyByMode[r in REGION,l in TIMESLICE,t in TECHNOLOGY,m in MODE_OF_OPERATION,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var RateOfProductionByTechnology[r in REGION,l in TIMESLICE,t in TECHNOLOGY,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var ProductionByTechnology[r in REGION,l in TIMESLICE,t in TECHNOLOGY,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var ProductionByTechnologyAnnual[r in REGION,t in TECHNOLOGY,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var RateOfProduction[r in REGION,l in TIMESLICE,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var Production[r in REGION,l in TIMESLICE,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var RateOfUseByTechnologyByMode[r in REGION,l in TIMESLICE,t in TECHNOLIOGY,m in MODE_OF_OPERATION,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var RateOfUseByTechnology[r in REGION,l in TIMESLICE,t in TECHNOLOGY,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var UseByTechnologyAnnual[r in REGION,t in TECHNOLOGY,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var UseByTechnology[r in REGION,l in TIMESLICE,t in TECHNOLOGY,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var Use[r in REGION,l in TIMESLICE,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var Trade[r in REGION,rr in REGION,l in TIMESLICE,f in FUEL,y in YEAR];</t>
+  </si>
+  <si>
+    <t>var TradeAnnual[r in REGION,rr in REGION,f in FUEL,y in YEAR];</t>
+  </si>
+  <si>
+    <t>var ProductionAnnual[r in REGION,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var UseAnnual[r in REGION,f in FUEL,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var CapitalInvestment[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var DiscountedCapitalInvestment[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var SalvageValue[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var DiscountedSalvageValue[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>param SpecifiedAnnualDemand[r in REGION,f in FUEL,y in YEAR];</t>
+  </si>
+  <si>
+    <t>param SpecifiedDemandProfile[r in REGION,f in FUEL,l in TIMESLICE,y in YEAR];</t>
+  </si>
+  <si>
+    <t>var OperatingCost[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var DiscountedOperatingCost[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var AnnualVariableOperatingCost[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var AnnualFixedOperatingCost[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var TotalDiscountedCostByTechnology[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var TotalDiscountedCost[r in REGION,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var ModelPeriodCostByRegion[r in REGION] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var TotalCapacityInReserveMargin[r in REGION,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var DemandNeedingReserveMargin[r in REGION,l in TIMESLICE,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var TotalREProductionAnnual[r in REGION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>var RETotalProductionOfTargetFuelAnnual[r in REGION,y in YEAR];</t>
+  </si>
+  <si>
+    <t>var AnnualTechnologyEmissionByMode[r in REGION,t in TECHNOLOGY,e in EMISSION,m in MODE_OF_OPERATION,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var AnnualTechnologyEmission[r in REGION,t in TECHNOLOGY,e in EMISSION,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var AnnualTechnologyEmissionPenaltyByEmission[r in REGION,t in TECHNOLOGY,e in EMISSION,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var AnnualTechnologyEmissionsPenalty[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var DiscountedTechnologyEmissionsPenalty[r in REGION,t in TECHNOLOGY,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var AnnualEmissions[r in REGION,e in EMISSION,y in YEAR] &gt;=0;</t>
+  </si>
+  <si>
+    <t>var ModelPeriodEmissions[r in REGION,e in EMISSION] &gt;=0;</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sub Type</t>
+  </si>
+  <si>
+    <t>Index/Unit</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy </t>
+  </si>
+  <si>
+    <t>Monetary Unit</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -25436,6 +25445,19 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -25458,11 +25480,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -25484,16 +25503,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25506,6 +25516,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25822,2252 +25841,4579 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D30A0AD-88AD-254F-9EE2-76FF7C661C04}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
+  <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="103.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D134" s="5" t="str">
+        <f>D133</f>
+        <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D135" s="5" t="str">
+        <f t="shared" ref="D135:D137" si="0">D134</f>
+        <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D137" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="C227" s="7"/>
+    </row>
+    <row r="229" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="C229" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B65" r:id="rId1" location="id2" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - id2" xr:uid="{2BFBBBA8-5BF4-C94A-A1A9-DFC38D28E409}"/>
+    <hyperlink ref="B67" r:id="rId2" location="id3" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - id3" xr:uid="{CA3120CF-49FA-3C4A-B6C6-5013248C7C97}"/>
+    <hyperlink ref="B85" r:id="rId3" location="capacity-variables" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - capacity-variables" xr:uid="{922A61B9-5CC3-184E-90FB-5042329CBF12}"/>
+    <hyperlink ref="B89" r:id="rId4" location="activity-variables" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - activity-variables" xr:uid="{F66F75AC-B4B6-6746-AE9A-1154F7932C8B}"/>
+    <hyperlink ref="B109" r:id="rId5" location="costing-variables" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - costing-variables" xr:uid="{1E3A516F-0CFE-1847-8FA8-3C1FE0F2F0B0}"/>
+    <hyperlink ref="B120" r:id="rId6" location="id4" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - id4" xr:uid="{99BEF792-83A8-9C48-BB6C-11131D98B4C7}"/>
+    <hyperlink ref="B121:B130" r:id="rId7" location="id4" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - id4" xr:uid="{2E5C91CE-7BCF-CD45-9F2C-E9A1502232F6}"/>
+    <hyperlink ref="B110:B119" r:id="rId8" location="costing-variables" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - costing-variables" xr:uid="{588B581F-3526-F640-BB01-DA38A133128A}"/>
+    <hyperlink ref="B90:B108" r:id="rId9" location="activity-variables" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - activity-variables" xr:uid="{BD2F1B1B-9333-814E-8C99-D0FAD7DE2208}"/>
+    <hyperlink ref="B86:B88" r:id="rId10" location="capacity-variables" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - capacity-variables" xr:uid="{A2D71438-F34C-CB4D-9C84-F3EF63E6825B}"/>
+    <hyperlink ref="B68:B84" r:id="rId11" location="id3" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - id3" xr:uid="{F26B5800-6BB6-8E4C-8F72-2D3A4C8F9A61}"/>
+    <hyperlink ref="B66" r:id="rId12" location="id2" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - id2" xr:uid="{2409FE17-01D2-8649-B684-2DE0C24BF9A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
-  <dimension ref="A1:H233"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56919488-1C74-8149-B635-AF13638B71F8}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="3" width="12.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="39" style="2" customWidth="1"/>
-    <col min="6" max="6" width="103.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="106.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="D6" s="4"/>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="F12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="F16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E21" s="4"/>
-      <c r="F21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="E26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F32" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F34" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F35" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="E36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F37" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F38" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F40" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F41" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F42" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F43" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F44" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F45" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F46" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F47" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F49" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F50" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="E51" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F52" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="E53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F54" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F55" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F56" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F58" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F59" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F61" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F62" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="E63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="F64" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F65" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="4:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F66" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F67" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F68" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="4:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="D69" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="4:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F70" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="4:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="E71" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="4:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F72" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F73" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F74" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="4:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F75" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F76" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="4:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F77" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="4:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F78" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="4:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F79" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F80" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="5:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F81" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="5:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F82" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="5:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F83" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F84" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F85" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="86" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F86" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F87" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="88" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F88" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="89" spans="5:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="E89" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="5:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F90" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="5:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F91" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="5:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F92" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="5:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="E93" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="5:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F94" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" spans="5:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F95" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="5:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F96" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F97" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="6:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F98" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" spans="6:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F99" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F100" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F101" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="102" spans="6:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F102" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F103" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="6:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F104" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="6:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F105" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F106" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F107" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F108" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="109" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F109" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="110" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F110" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F111" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="112" spans="6:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="F112" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="113" spans="5:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="E113" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="114" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F114" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="115" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F115" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="116" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F116" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="117" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F117" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F118" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="119" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F119" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="120" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F120" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="121" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F121" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="122" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F122" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="123" spans="5:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F123" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="124" spans="5:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="E124" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="125" spans="5:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F125" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="126" spans="5:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F126" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="5:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="F127" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="128" spans="5:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F128" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="129" spans="4:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F129" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="130" spans="4:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F130" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="131" spans="4:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F131" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="F132" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F133" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="134" spans="4:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="F134" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="135" spans="4:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D135" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="136" spans="4:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="E136" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="137" spans="4:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="E137" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="138" spans="4:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="F138" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G138" s="6" t="str">
-        <f>G137</f>
-        <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
-      </c>
-    </row>
-    <row r="139" spans="4:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="F139" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G139" s="6" t="str">
-        <f t="shared" ref="G139:G141" si="0">G138</f>
-        <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
-      </c>
-    </row>
-    <row r="140" spans="4:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="F140" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G140" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
-      </c>
-    </row>
-    <row r="141" spans="4:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F141" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G141" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
-      </c>
-    </row>
-    <row r="142" spans="4:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="E142" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="143" spans="4:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="E143" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="144" spans="4:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="F144" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="145" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F145" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="146" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="F146" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="147" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F147" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="148" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F148" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="149" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F149" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="150" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F150" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="151" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F151" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="152" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F152" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="153" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F153" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="154" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E154" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G154" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="155" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F155" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G155" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="156" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F156" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="157" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F157" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="158" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="E158" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G158" s="15" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="159" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F159" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G159" s="15" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="160" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="F160" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G160" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="161" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F161" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="162" spans="5:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="E162" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="163" spans="5:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="F163" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="164" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F164" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="165" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="F165" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="166" spans="5:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="F166" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="167" spans="5:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="F167" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="168" spans="5:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="F168" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="169" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F169" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="F170" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="171" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="E171" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="172" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F172" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="173" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F173" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="174" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F174" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="175" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F175" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="176" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F176" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="177" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F177" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="178" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F178" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="179" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F179" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="180" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F180" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="181" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="E181" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G181" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="182" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F182" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G182" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="183" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F183" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G183" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="184" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F184" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G184" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="185" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F185" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="186" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F186" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G186" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="187" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F187" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G187" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="188" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F188" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G188" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="189" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F189" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G189" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="190" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F190" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G190" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="191" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E191" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G191" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="192" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F192" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G192" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="193" spans="5:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="E193" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="194" spans="5:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="F194" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G194" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="195" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F195" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="196" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F196" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G196" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="197" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E197" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G197" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="198" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="F198" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G198" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="199" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F199" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G199" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="200" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F200" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G200" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="201" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E201" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G201" s="15" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="202" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F202" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G202" s="15" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="203" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E203" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G203" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="204" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F204" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G204" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="205" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E205" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G205" s="15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="206" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F206" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G206" s="15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="207" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="E207" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G207" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="208" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F208" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G208" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="209" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="F209" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G209" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="210" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E210" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G210" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="211" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="F211" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G211" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="212" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="F212" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G212" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="213" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E213" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G213" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="214" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F214" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G214" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="215" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F215" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G215" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="216" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="E216" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G216" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="217" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F217" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G217" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="218" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F218" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G218" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="219" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F219" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G219" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="220" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F220" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G220" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="221" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="E221" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G221" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="222" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F222" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G222" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="223" spans="5:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="F223" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G223" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="224" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F224" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G224" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="225" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F225" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G225" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="226" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F226" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G226" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="227" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F227" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G227" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="228" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F228" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G228" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="229" spans="5:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="F229" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G229" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="230" spans="5:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="E230" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F230" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="231" spans="5:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F231" s="8"/>
-    </row>
-    <row r="233" spans="5:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="F233" s="13"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html" xr:uid="{0D695F9B-3C5E-6542-9FC8-E466B35593CD}"/>
-    <hyperlink ref="E69" r:id="rId2" location="id2" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - id2" xr:uid="{2BFBBBA8-5BF4-C94A-A1A9-DFC38D28E409}"/>
-    <hyperlink ref="E71" r:id="rId3" location="id3" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - id3" xr:uid="{CA3120CF-49FA-3C4A-B6C6-5013248C7C97}"/>
-    <hyperlink ref="E89" r:id="rId4" location="capacity-variables" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - capacity-variables" xr:uid="{922A61B9-5CC3-184E-90FB-5042329CBF12}"/>
-    <hyperlink ref="E93" r:id="rId5" location="activity-variables" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - activity-variables" xr:uid="{F66F75AC-B4B6-6746-AE9A-1154F7932C8B}"/>
-    <hyperlink ref="E113" r:id="rId6" location="costing-variables" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - costing-variables" xr:uid="{1E3A516F-0CFE-1847-8FA8-3C1FE0F2F0B0}"/>
-    <hyperlink ref="E124" r:id="rId7" location="id4" tooltip="Permalink to this headline" display="https://osemosys.readthedocs.io/en/latest/manual/Structure of OSeMOSYS.html - id4" xr:uid="{99BEF792-83A8-9C48-BB6C-11131D98B4C7}"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31943FCE-F9DC-E74C-BC50-ABF1484383F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A2A40-9AFA-9342-BE73-AD63C8A05525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
@@ -25108,8 +25108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A2A40-9AFA-9342-BE73-AD63C8A05525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3CAC9-7FDE-5F47-B90D-DF711BE624FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
@@ -38,6 +38,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Sets</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -2449,9 +2452,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Set</t>
   </si>
   <si>
     <t>Include</t>
@@ -25108,8 +25108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25123,19 +25123,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>349</v>
@@ -25143,19 +25143,19 @@
     </row>
     <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>350</v>
@@ -25163,19 +25163,19 @@
     </row>
     <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>350</v>
@@ -25183,19 +25183,19 @@
     </row>
     <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>350</v>
@@ -25203,19 +25203,19 @@
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>350</v>
@@ -25223,19 +25223,19 @@
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>350</v>
@@ -25243,19 +25243,19 @@
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>350</v>
@@ -25263,19 +25263,19 @@
     </row>
     <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>350</v>
@@ -25283,19 +25283,19 @@
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>350</v>
@@ -25303,19 +25303,19 @@
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>350</v>
@@ -25323,19 +25323,19 @@
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>350</v>
@@ -25343,16 +25343,16 @@
     </row>
     <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>446</v>
@@ -25363,19 +25363,19 @@
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>350</v>
@@ -25383,19 +25383,19 @@
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>350</v>
@@ -25403,19 +25403,19 @@
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>350</v>
@@ -25423,19 +25423,19 @@
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>350</v>
@@ -25443,19 +25443,19 @@
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>350</v>
@@ -25463,19 +25463,19 @@
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>350</v>
@@ -25483,19 +25483,19 @@
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>350</v>
@@ -25503,19 +25503,19 @@
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>351</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>350</v>
@@ -25523,19 +25523,19 @@
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>350</v>
@@ -25543,19 +25543,19 @@
     </row>
     <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>350</v>
@@ -25563,19 +25563,19 @@
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>350</v>
@@ -25583,19 +25583,19 @@
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>350</v>
@@ -25603,19 +25603,19 @@
     </row>
     <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>350</v>
@@ -25623,19 +25623,19 @@
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>350</v>
@@ -25643,19 +25643,19 @@
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>350</v>
@@ -25663,19 +25663,19 @@
     </row>
     <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>350</v>
@@ -25683,19 +25683,19 @@
     </row>
     <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>350</v>
@@ -25703,19 +25703,19 @@
     </row>
     <row r="30" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>350</v>
@@ -25723,19 +25723,19 @@
     </row>
     <row r="31" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>350</v>
@@ -25743,19 +25743,19 @@
     </row>
     <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>350</v>
@@ -25763,19 +25763,19 @@
     </row>
     <row r="33" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>350</v>
@@ -25783,19 +25783,19 @@
     </row>
     <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>350</v>
@@ -25803,19 +25803,19 @@
     </row>
     <row r="35" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>350</v>
@@ -25823,19 +25823,19 @@
     </row>
     <row r="36" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>350</v>
@@ -25843,19 +25843,19 @@
     </row>
     <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>350</v>
@@ -25863,19 +25863,19 @@
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>350</v>
@@ -25883,19 +25883,19 @@
     </row>
     <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>350</v>
@@ -25903,19 +25903,19 @@
     </row>
     <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>350</v>
@@ -25923,19 +25923,19 @@
     </row>
     <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>353</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>350</v>
@@ -25943,19 +25943,19 @@
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>350</v>
@@ -25963,19 +25963,19 @@
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>350</v>
@@ -25983,19 +25983,19 @@
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>350</v>
@@ -26003,19 +26003,19 @@
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>350</v>
@@ -26023,19 +26023,19 @@
     </row>
     <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>350</v>
@@ -26043,19 +26043,19 @@
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>350</v>
@@ -26063,19 +26063,19 @@
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>350</v>
@@ -26083,19 +26083,19 @@
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>350</v>
@@ -26103,19 +26103,19 @@
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>350</v>
@@ -26123,19 +26123,19 @@
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>350</v>
@@ -26143,19 +26143,19 @@
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>350</v>
@@ -26163,19 +26163,19 @@
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>350</v>
@@ -26183,19 +26183,19 @@
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>350</v>
@@ -26203,19 +26203,19 @@
     </row>
     <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>350</v>
@@ -26223,19 +26223,19 @@
     </row>
     <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>350</v>
@@ -26243,19 +26243,19 @@
     </row>
     <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>350</v>
@@ -26263,19 +26263,19 @@
     </row>
     <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>350</v>
@@ -26283,19 +26283,19 @@
     </row>
     <row r="59" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>350</v>
@@ -26303,19 +26303,19 @@
     </row>
     <row r="60" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>350</v>
@@ -26323,19 +26323,19 @@
     </row>
     <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>350</v>
@@ -26343,19 +26343,19 @@
     </row>
     <row r="62" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>350</v>
@@ -26363,19 +26363,19 @@
     </row>
     <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>350</v>
@@ -26383,19 +26383,19 @@
     </row>
     <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>350</v>
@@ -26403,19 +26403,19 @@
     </row>
     <row r="65" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>350</v>
@@ -26423,19 +26423,19 @@
     </row>
     <row r="66" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>350</v>
@@ -26443,19 +26443,19 @@
     </row>
     <row r="67" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>350</v>
@@ -26463,19 +26463,19 @@
     </row>
     <row r="68" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>350</v>
@@ -26483,19 +26483,19 @@
     </row>
     <row r="69" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>350</v>
@@ -26503,19 +26503,19 @@
     </row>
     <row r="70" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>350</v>
@@ -26523,19 +26523,19 @@
     </row>
     <row r="71" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>350</v>
@@ -26543,19 +26543,19 @@
     </row>
     <row r="72" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>350</v>
@@ -26563,19 +26563,19 @@
     </row>
     <row r="73" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>350</v>
@@ -26583,19 +26583,19 @@
     </row>
     <row r="74" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>350</v>
@@ -26603,19 +26603,19 @@
     </row>
     <row r="75" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>350</v>
@@ -26623,19 +26623,19 @@
     </row>
     <row r="76" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>350</v>
@@ -26643,19 +26643,19 @@
     </row>
     <row r="77" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>350</v>
@@ -26663,19 +26663,19 @@
     </row>
     <row r="78" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>350</v>
@@ -26683,19 +26683,19 @@
     </row>
     <row r="79" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>350</v>
@@ -26703,19 +26703,19 @@
     </row>
     <row r="80" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>350</v>
@@ -26723,19 +26723,19 @@
     </row>
     <row r="81" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D81" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>350</v>
@@ -26743,19 +26743,19 @@
     </row>
     <row r="82" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>350</v>
@@ -26763,19 +26763,19 @@
     </row>
     <row r="83" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>350</v>
@@ -26783,19 +26783,19 @@
     </row>
     <row r="84" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>350</v>
@@ -26803,19 +26803,19 @@
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>350</v>
@@ -26823,19 +26823,19 @@
     </row>
     <row r="86" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>350</v>
@@ -26843,19 +26843,19 @@
     </row>
     <row r="87" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D87" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>350</v>
@@ -26863,19 +26863,19 @@
     </row>
     <row r="88" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>350</v>
@@ -26883,19 +26883,19 @@
     </row>
     <row r="89" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>350</v>
@@ -26903,19 +26903,19 @@
     </row>
     <row r="90" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>350</v>
@@ -26923,19 +26923,19 @@
     </row>
     <row r="91" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>350</v>
@@ -26943,19 +26943,19 @@
     </row>
     <row r="92" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>350</v>
@@ -26963,19 +26963,19 @@
     </row>
     <row r="93" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>350</v>
@@ -26983,19 +26983,19 @@
     </row>
     <row r="94" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>350</v>
@@ -27003,19 +27003,19 @@
     </row>
     <row r="95" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>350</v>
@@ -27023,19 +27023,19 @@
     </row>
     <row r="96" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>350</v>
@@ -27043,19 +27043,19 @@
     </row>
     <row r="97" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>350</v>
@@ -27063,19 +27063,19 @@
     </row>
     <row r="98" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>350</v>
@@ -27083,19 +27083,19 @@
     </row>
     <row r="99" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>350</v>
@@ -27103,19 +27103,19 @@
     </row>
     <row r="100" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>350</v>
@@ -27123,19 +27123,19 @@
     </row>
     <row r="101" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>350</v>
@@ -27143,19 +27143,19 @@
     </row>
     <row r="102" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>350</v>
@@ -27163,19 +27163,19 @@
     </row>
     <row r="103" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>350</v>
@@ -27183,19 +27183,19 @@
     </row>
     <row r="104" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>350</v>
@@ -27203,19 +27203,19 @@
     </row>
     <row r="105" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>350</v>
@@ -27223,19 +27223,19 @@
     </row>
     <row r="106" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>350</v>
@@ -27243,19 +27243,19 @@
     </row>
     <row r="107" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>350</v>
@@ -27263,19 +27263,19 @@
     </row>
     <row r="108" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>350</v>
@@ -27283,19 +27283,19 @@
     </row>
     <row r="109" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>350</v>
@@ -27303,19 +27303,19 @@
     </row>
     <row r="110" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>350</v>
@@ -27323,19 +27323,19 @@
     </row>
     <row r="111" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>350</v>
@@ -27343,19 +27343,19 @@
     </row>
     <row r="112" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>350</v>
@@ -27363,19 +27363,19 @@
     </row>
     <row r="113" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>350</v>
@@ -27383,19 +27383,19 @@
     </row>
     <row r="114" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>350</v>
@@ -27403,19 +27403,19 @@
     </row>
     <row r="115" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>350</v>
@@ -27423,19 +27423,19 @@
     </row>
     <row r="116" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>350</v>
@@ -27443,19 +27443,19 @@
     </row>
     <row r="117" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>350</v>
@@ -27463,19 +27463,19 @@
     </row>
     <row r="118" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>350</v>
@@ -27483,19 +27483,19 @@
     </row>
     <row r="119" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>350</v>
@@ -27503,19 +27503,19 @@
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>350</v>
@@ -27523,19 +27523,19 @@
     </row>
     <row r="121" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>350</v>
@@ -27543,19 +27543,19 @@
     </row>
     <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>350</v>
@@ -27563,19 +27563,19 @@
     </row>
     <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>350</v>
@@ -27583,19 +27583,19 @@
     </row>
     <row r="124" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>350</v>
@@ -27603,19 +27603,19 @@
     </row>
     <row r="125" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D125" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>350</v>
@@ -27623,19 +27623,19 @@
     </row>
     <row r="126" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>350</v>
@@ -27643,19 +27643,19 @@
     </row>
     <row r="127" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>350</v>
@@ -27663,19 +27663,19 @@
     </row>
     <row r="128" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>350</v>
@@ -27683,19 +27683,19 @@
     </row>
     <row r="129" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>350</v>
@@ -27703,19 +27703,19 @@
     </row>
     <row r="130" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>350</v>
@@ -27723,19 +27723,19 @@
     </row>
     <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>350</v>
@@ -27743,19 +27743,19 @@
     </row>
     <row r="132" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>354</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>350</v>
@@ -27763,19 +27763,19 @@
     </row>
     <row r="133" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>355</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>350</v>
@@ -27783,10 +27783,10 @@
     </row>
     <row r="134" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>356</v>
@@ -27796,7 +27796,7 @@
         <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>350</v>
@@ -27804,10 +27804,10 @@
     </row>
     <row r="135" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>357</v>
@@ -27817,7 +27817,7 @@
         <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>350</v>
@@ -27825,10 +27825,10 @@
     </row>
     <row r="136" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>358</v>
@@ -27838,7 +27838,7 @@
         <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>350</v>
@@ -27846,10 +27846,10 @@
     </row>
     <row r="137" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>359</v>
@@ -27859,7 +27859,7 @@
         <v>Used to first calculate total capacity of each technology for each year based on existing capacity from before the model period (ResidualCapacity), AccumulatedNewCapacity during the modelling period, and NewCapacity installed in each year. It is then ensured that this Capacity is sufficient to meet the RateOfTotalActivity in each TimeSlice and Year. An additional constraint based on the size, or capacity, of each unit of a Technology is included (CapacityOfOneTechnologyUnit). This stipulates that the capacity of certain Technology can only be a multiple of the user-defined CapacityOfOneTechnologyUnit.</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>350</v>
@@ -27867,19 +27867,19 @@
     </row>
     <row r="138" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>362</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>350</v>
@@ -27887,19 +27887,19 @@
     </row>
     <row r="139" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>360</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>350</v>
@@ -27907,19 +27907,19 @@
     </row>
     <row r="140" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>361</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>350</v>
@@ -27927,19 +27927,19 @@
     </row>
     <row r="141" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>363</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>350</v>
@@ -27947,19 +27947,19 @@
     </row>
     <row r="142" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>364</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>350</v>
@@ -27967,19 +27967,19 @@
     </row>
     <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>365</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>350</v>
@@ -27987,19 +27987,19 @@
     </row>
     <row r="144" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>366</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>350</v>
@@ -28007,19 +28007,19 @@
     </row>
     <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>367</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>350</v>
@@ -28027,19 +28027,19 @@
     </row>
     <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>368</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>350</v>
@@ -28047,19 +28047,19 @@
     </row>
     <row r="147" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>369</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>350</v>
@@ -28067,19 +28067,19 @@
     </row>
     <row r="148" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>370</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>350</v>
@@ -28087,19 +28087,19 @@
     </row>
     <row r="149" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>371</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>350</v>
@@ -28107,19 +28107,19 @@
     </row>
     <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>372</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>350</v>
@@ -28127,19 +28127,19 @@
     </row>
     <row r="151" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>373</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>350</v>
@@ -28147,19 +28147,19 @@
     </row>
     <row r="152" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>374</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>350</v>
@@ -28167,19 +28167,19 @@
     </row>
     <row r="153" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>375</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>350</v>
@@ -28187,19 +28187,19 @@
     </row>
     <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>376</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>350</v>
@@ -28207,19 +28207,19 @@
     </row>
     <row r="155" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>377</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>350</v>
@@ -28227,19 +28227,19 @@
     </row>
     <row r="156" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>378</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>350</v>
@@ -28247,19 +28247,19 @@
     </row>
     <row r="157" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>379</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>350</v>
@@ -28267,19 +28267,19 @@
     </row>
     <row r="158" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>380</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>350</v>
@@ -28287,19 +28287,19 @@
     </row>
     <row r="159" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>381</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>350</v>
@@ -28307,19 +28307,19 @@
     </row>
     <row r="160" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>382</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>350</v>
@@ -28327,19 +28327,19 @@
     </row>
     <row r="161" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>383</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>350</v>
@@ -28347,19 +28347,19 @@
     </row>
     <row r="162" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>384</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>350</v>
@@ -28367,19 +28367,19 @@
     </row>
     <row r="163" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>385</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>350</v>
@@ -28387,19 +28387,19 @@
     </row>
     <row r="164" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>386</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>350</v>
@@ -28407,19 +28407,19 @@
     </row>
     <row r="165" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>387</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>350</v>
@@ -28427,19 +28427,19 @@
     </row>
     <row r="166" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>388</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>350</v>
@@ -28447,19 +28447,19 @@
     </row>
     <row r="167" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>389</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>350</v>
@@ -28467,19 +28467,19 @@
     </row>
     <row r="168" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>390</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>350</v>
@@ -28487,19 +28487,19 @@
     </row>
     <row r="169" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>391</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>350</v>
@@ -28507,19 +28507,19 @@
     </row>
     <row r="170" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>392</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>350</v>
@@ -28527,19 +28527,19 @@
     </row>
     <row r="171" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>393</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>350</v>
@@ -28547,19 +28547,19 @@
     </row>
     <row r="172" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>394</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>350</v>
@@ -28567,19 +28567,19 @@
     </row>
     <row r="173" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>395</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>350</v>
@@ -28587,19 +28587,19 @@
     </row>
     <row r="174" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>396</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>350</v>
@@ -28607,19 +28607,19 @@
     </row>
     <row r="175" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>350</v>
@@ -28627,19 +28627,19 @@
     </row>
     <row r="176" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>350</v>
@@ -28647,19 +28647,19 @@
     </row>
     <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>397</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>350</v>
@@ -28667,19 +28667,19 @@
     </row>
     <row r="178" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>398</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>350</v>
@@ -28687,19 +28687,19 @@
     </row>
     <row r="179" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>399</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>350</v>
@@ -28707,19 +28707,19 @@
     </row>
     <row r="180" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>400</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>350</v>
@@ -28727,19 +28727,19 @@
     </row>
     <row r="181" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>401</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>350</v>
@@ -28747,19 +28747,19 @@
     </row>
     <row r="182" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>402</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>350</v>
@@ -28767,19 +28767,19 @@
     </row>
     <row r="183" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>403</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>350</v>
@@ -28787,19 +28787,19 @@
     </row>
     <row r="184" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>404</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>350</v>
@@ -28807,19 +28807,19 @@
     </row>
     <row r="185" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>405</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>350</v>
@@ -28827,19 +28827,19 @@
     </row>
     <row r="186" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>406</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>350</v>
@@ -28847,19 +28847,19 @@
     </row>
     <row r="187" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>407</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>350</v>
@@ -28867,19 +28867,19 @@
     </row>
     <row r="188" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>408</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>350</v>
@@ -28887,19 +28887,19 @@
     </row>
     <row r="189" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>409</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>350</v>
@@ -28907,19 +28907,19 @@
     </row>
     <row r="190" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>410</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>350</v>
@@ -28927,19 +28927,19 @@
     </row>
     <row r="191" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>350</v>
@@ -28947,19 +28947,19 @@
     </row>
     <row r="192" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>412</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>350</v>
@@ -28967,19 +28967,19 @@
     </row>
     <row r="193" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>413</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>350</v>
@@ -28987,19 +28987,19 @@
     </row>
     <row r="194" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>414</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>350</v>
@@ -29007,19 +29007,19 @@
     </row>
     <row r="195" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>415</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>350</v>
@@ -29027,19 +29027,19 @@
     </row>
     <row r="196" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>416</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>350</v>
@@ -29047,19 +29047,19 @@
     </row>
     <row r="197" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>417</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>350</v>
@@ -29067,19 +29067,19 @@
     </row>
     <row r="198" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>418</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>350</v>
@@ -29087,19 +29087,19 @@
     </row>
     <row r="199" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>419</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>350</v>
@@ -29107,19 +29107,19 @@
     </row>
     <row r="200" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>420</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>350</v>
@@ -29127,19 +29127,19 @@
     </row>
     <row r="201" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>421</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>350</v>
@@ -29147,19 +29147,19 @@
     </row>
     <row r="202" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>422</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>350</v>
@@ -29167,19 +29167,19 @@
     </row>
     <row r="203" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>423</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>350</v>
@@ -29187,19 +29187,19 @@
     </row>
     <row r="204" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>424</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>350</v>
@@ -29207,19 +29207,19 @@
     </row>
     <row r="205" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>425</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>350</v>
@@ -29227,19 +29227,19 @@
     </row>
     <row r="206" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>426</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>350</v>
@@ -29247,19 +29247,19 @@
     </row>
     <row r="207" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>427</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>350</v>
@@ -29267,19 +29267,19 @@
     </row>
     <row r="208" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>428</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>350</v>
@@ -29287,19 +29287,19 @@
     </row>
     <row r="209" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>429</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>350</v>
@@ -29307,19 +29307,19 @@
     </row>
     <row r="210" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>430</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>350</v>
@@ -29327,19 +29327,19 @@
     </row>
     <row r="211" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>431</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>350</v>
@@ -29347,19 +29347,19 @@
     </row>
     <row r="212" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>432</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>350</v>
@@ -29367,19 +29367,19 @@
     </row>
     <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>433</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>350</v>
@@ -29387,19 +29387,19 @@
     </row>
     <row r="214" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>434</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>350</v>
@@ -29407,19 +29407,19 @@
     </row>
     <row r="215" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>435</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>350</v>
@@ -29427,19 +29427,19 @@
     </row>
     <row r="216" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>436</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>350</v>
@@ -29447,19 +29447,19 @@
     </row>
     <row r="217" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>437</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>350</v>
@@ -29467,19 +29467,19 @@
     </row>
     <row r="218" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>438</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>350</v>
@@ -29487,19 +29487,19 @@
     </row>
     <row r="219" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>439</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>350</v>
@@ -29507,19 +29507,19 @@
     </row>
     <row r="220" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>440</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>350</v>
@@ -29527,19 +29527,19 @@
     </row>
     <row r="221" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>441</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>350</v>
@@ -29547,19 +29547,19 @@
     </row>
     <row r="222" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>442</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>350</v>
@@ -29567,19 +29567,19 @@
     </row>
     <row r="223" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>443</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>350</v>
@@ -29587,19 +29587,19 @@
     </row>
     <row r="224" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>444</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>350</v>
@@ -29607,19 +29607,19 @@
     </row>
     <row r="225" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>445</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>350</v>
@@ -29627,19 +29627,19 @@
     </row>
     <row r="226" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>350</v>

--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3CAC9-7FDE-5F47-B90D-DF711BE624FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B121048-4317-924A-B6A9-DC50B783E96A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
@@ -25108,8 +25108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DEFC83-C826-6449-B0E7-5274AF1FAC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA876196-C0F1-024A-BA32-56BEE601FFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
@@ -25108,8 +25108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA876196-C0F1-024A-BA32-56BEE601FFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187A91D1-836C-C244-A2D2-1502170D4842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
@@ -24037,12 +24037,6 @@
     <t>param Conversionls{l in TIMESLICE,ls in SEASON};</t>
   </si>
   <si>
-    <t>param Conversionld{ld in DAYTYPE,l in TIMESLICE};</t>
-  </si>
-  <si>
-    <t>param Conversionlh{lh in DAILYTIMEBRACKET,l in TIMESLICE};</t>
-  </si>
-  <si>
     <t>param DaysInDayType{ls in SEASON ,ld in DAYTYPE,y in YEAR};</t>
   </si>
   <si>
@@ -24587,6 +24581,12 @@
   </si>
   <si>
     <t>solve;</t>
+  </si>
+  <si>
+    <t>param Conversionld{l in TIMESLICE,ld in DAYTYPE};</t>
+  </si>
+  <si>
+    <t>param Conversionlh{l in TIMESLICE,lh in DAILYTIMEBRACKET};</t>
   </si>
 </sst>
 </file>
@@ -24726,12 +24726,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -24747,7 +24753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -24791,6 +24797,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -24798,6 +24807,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF30"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -25108,8 +25122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25428,7 +25442,7 @@
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>330</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -25448,8 +25462,8 @@
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>331</v>
+      <c r="C17" s="15" t="s">
+        <v>448</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>30</v>
@@ -25468,8 +25482,8 @@
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>332</v>
+      <c r="C18" s="15" t="s">
+        <v>449</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>31</v>
@@ -25489,7 +25503,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>32</v>
@@ -25509,7 +25523,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>33</v>
@@ -25529,7 +25543,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>34</v>
@@ -25549,7 +25563,7 @@
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>36</v>
@@ -25569,7 +25583,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>37</v>
@@ -25589,7 +25603,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>38</v>
@@ -25609,7 +25623,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>39</v>
@@ -25629,7 +25643,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>40</v>
@@ -25649,7 +25663,7 @@
         <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>41</v>
@@ -25669,7 +25683,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>42</v>
@@ -25689,7 +25703,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>43</v>
@@ -25709,7 +25723,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>44</v>
@@ -25729,7 +25743,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>45</v>
@@ -25749,7 +25763,7 @@
         <v>50</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>46</v>
@@ -25769,7 +25783,7 @@
         <v>50</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>47</v>
@@ -25789,7 +25803,7 @@
         <v>50</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>48</v>
@@ -25809,7 +25823,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>51</v>
@@ -25829,7 +25843,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>52</v>
@@ -25849,7 +25863,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>53</v>
@@ -25869,7 +25883,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>54</v>
@@ -25889,7 +25903,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>55</v>
@@ -25909,7 +25923,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>56</v>
@@ -25929,7 +25943,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>57</v>
@@ -25949,7 +25963,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>58</v>
@@ -25969,7 +25983,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>59</v>
@@ -25989,7 +26003,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>61</v>
@@ -26009,7 +26023,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>62</v>
@@ -26029,7 +26043,7 @@
         <v>60</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>63</v>
@@ -26049,7 +26063,7 @@
         <v>72</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>64</v>
@@ -26069,7 +26083,7 @@
         <v>72</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>65</v>
@@ -26089,7 +26103,7 @@
         <v>66</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>67</v>
@@ -26109,7 +26123,7 @@
         <v>66</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>68</v>
@@ -26129,7 +26143,7 @@
         <v>66</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>69</v>
@@ -26149,7 +26163,7 @@
         <v>66</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>70</v>
@@ -26169,7 +26183,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>74</v>
@@ -26189,7 +26203,7 @@
         <v>73</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>75</v>
@@ -26209,7 +26223,7 @@
         <v>73</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>76</v>
@@ -26229,7 +26243,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>78</v>
@@ -26249,7 +26263,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>79</v>
@@ -26269,7 +26283,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>80</v>
@@ -26289,7 +26303,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>82</v>
@@ -26309,7 +26323,7 @@
         <v>81</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>83</v>
@@ -26329,7 +26343,7 @@
         <v>81</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>84</v>
@@ -26349,7 +26363,7 @@
         <v>81</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>85</v>
@@ -26369,7 +26383,7 @@
         <v>81</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>86</v>
@@ -26389,7 +26403,7 @@
         <v>81</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>87</v>
@@ -26409,7 +26423,7 @@
         <v>35</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>89</v>
@@ -26429,7 +26443,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>90</v>
@@ -26449,7 +26463,7 @@
         <v>49</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>92</v>
@@ -26469,7 +26483,7 @@
         <v>49</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>93</v>
@@ -26489,7 +26503,7 @@
         <v>49</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>95</v>
@@ -26509,7 +26523,7 @@
         <v>49</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>96</v>
@@ -26529,7 +26543,7 @@
         <v>49</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>97</v>
@@ -26549,7 +26563,7 @@
         <v>49</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>98</v>
@@ -26569,7 +26583,7 @@
         <v>49</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>99</v>
@@ -26589,7 +26603,7 @@
         <v>49</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>100</v>
@@ -26609,7 +26623,7 @@
         <v>49</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>101</v>
@@ -26629,7 +26643,7 @@
         <v>49</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>102</v>
@@ -26649,7 +26663,7 @@
         <v>49</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>103</v>
@@ -26669,7 +26683,7 @@
         <v>49</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>104</v>
@@ -26689,7 +26703,7 @@
         <v>49</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>105</v>
@@ -26709,7 +26723,7 @@
         <v>49</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>106</v>
@@ -26729,7 +26743,7 @@
         <v>49</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>108</v>
@@ -26749,7 +26763,7 @@
         <v>49</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>109</v>
@@ -26769,7 +26783,7 @@
         <v>49</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>110</v>
@@ -26789,7 +26803,7 @@
         <v>49</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>111</v>
@@ -26809,7 +26823,7 @@
         <v>112</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>113</v>
@@ -26829,7 +26843,7 @@
         <v>112</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>114</v>
@@ -26849,7 +26863,7 @@
         <v>112</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>116</v>
@@ -26869,7 +26883,7 @@
         <v>112</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>117</v>
@@ -26889,7 +26903,7 @@
         <v>118</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>119</v>
@@ -26909,7 +26923,7 @@
         <v>118</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>120</v>
@@ -26929,7 +26943,7 @@
         <v>118</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>121</v>
@@ -26949,7 +26963,7 @@
         <v>118</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>122</v>
@@ -26969,7 +26983,7 @@
         <v>118</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>123</v>
@@ -26989,7 +27003,7 @@
         <v>118</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>124</v>
@@ -27009,7 +27023,7 @@
         <v>118</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>125</v>
@@ -27029,7 +27043,7 @@
         <v>118</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>126</v>
@@ -27049,7 +27063,7 @@
         <v>118</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>127</v>
@@ -27069,7 +27083,7 @@
         <v>118</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>128</v>
@@ -27089,7 +27103,7 @@
         <v>118</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>129</v>
@@ -27109,7 +27123,7 @@
         <v>118</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>130</v>
@@ -27129,7 +27143,7 @@
         <v>118</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>131</v>
@@ -27149,7 +27163,7 @@
         <v>118</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>132</v>
@@ -27169,7 +27183,7 @@
         <v>118</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>133</v>
@@ -27189,10 +27203,10 @@
         <v>118</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>91</v>
@@ -27209,7 +27223,7 @@
         <v>118</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>134</v>
@@ -27229,7 +27243,7 @@
         <v>118</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>135</v>
@@ -27249,7 +27263,7 @@
         <v>118</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>136</v>
@@ -27269,7 +27283,7 @@
         <v>118</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>137</v>
@@ -27289,7 +27303,7 @@
         <v>118</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>138</v>
@@ -27309,7 +27323,7 @@
         <v>139</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>140</v>
@@ -27329,7 +27343,7 @@
         <v>139</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>141</v>
@@ -27349,7 +27363,7 @@
         <v>139</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>142</v>
@@ -27369,7 +27383,7 @@
         <v>139</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>143</v>
@@ -27389,7 +27403,7 @@
         <v>139</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>144</v>
@@ -27409,7 +27423,7 @@
         <v>139</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>145</v>
@@ -27429,7 +27443,7 @@
         <v>139</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>146</v>
@@ -27449,7 +27463,7 @@
         <v>139</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>147</v>
@@ -27469,7 +27483,7 @@
         <v>139</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D118" s="11" t="s">
         <v>148</v>
@@ -27489,7 +27503,7 @@
         <v>139</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>149</v>
@@ -27509,7 +27523,7 @@
         <v>139</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>150</v>
@@ -27529,7 +27543,7 @@
         <v>71</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>151</v>
@@ -27549,7 +27563,7 @@
         <v>71</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>152</v>
@@ -27569,7 +27583,7 @@
         <v>71</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>153</v>
@@ -27589,7 +27603,7 @@
         <v>71</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>154</v>
@@ -27609,7 +27623,7 @@
         <v>71</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>155</v>
@@ -27629,7 +27643,7 @@
         <v>71</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>157</v>
@@ -27649,7 +27663,7 @@
         <v>71</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>158</v>
@@ -27669,7 +27683,7 @@
         <v>71</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>159</v>
@@ -27689,7 +27703,7 @@
         <v>71</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>160</v>
@@ -27709,7 +27723,7 @@
         <v>71</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>161</v>
@@ -27729,7 +27743,7 @@
         <v>71</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>162</v>
@@ -27893,7 +27907,7 @@
         <v>171</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>170</v>
@@ -28285,7 +28299,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
@@ -28305,7 +28319,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -28325,7 +28339,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -28405,7 +28419,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -28425,7 +28439,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -29653,7 +29667,7 @@
         <v>213</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>200</v>
@@ -29673,7 +29687,7 @@
         <v>213</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>200</v>

--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187A91D1-836C-C244-A2D2-1502170D4842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B0BD21-34B3-7841-A6D6-71677971BC5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -25122,8 +25122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="159" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B0BD21-34B3-7841-A6D6-71677971BC5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A11E6-F0CD-D84C-879D-8038355A48AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -25122,7 +25122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="159" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A11E6-F0CD-D84C-879D-8038355A48AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C571436-9C15-3745-9164-155FE84332A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
@@ -25122,8 +25122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28479,7 +28479,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
@@ -28559,7 +28559,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>163</v>
       </c>

--- a/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/GOCPI_OseMOSYS_Structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C571436-9C15-3745-9164-155FE84332A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF4662-2CFC-F74F-B23D-177083E450A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8DA962F7-3EC7-1A41-B8DA-1F41AB2AC512}"/>
   </bookViews>
@@ -25122,8 +25122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E50F9F-9914-BE4A-ADE8-5916B7A5EEBB}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28479,7 +28479,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
@@ -28559,7 +28559,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>163</v>
       </c>
